--- a/middleProject/managerInfo.xlsx
+++ b/middleProject/managerInfo.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>날짜</t>
   </si>
@@ -59,25 +59,43 @@
     <t>카카오</t>
   </si>
   <si>
+    <t>P3131</t>
+  </si>
+  <si>
+    <t>1100</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>초코우유</t>
+  </si>
+  <si>
+    <t>P3123</t>
+  </si>
+  <si>
+    <t>1700</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
     <t>P3124</t>
   </si>
   <si>
-    <t>1100</t>
-  </si>
-  <si>
-    <t>70</t>
+    <t>71</t>
   </si>
   <si>
     <t>롤휴지</t>
   </si>
   <si>
-    <t>P8014</t>
+    <t>P2914</t>
   </si>
   <si>
     <t>13500</t>
   </si>
   <si>
-    <t>60</t>
+    <t>81</t>
   </si>
 </sst>
 </file>
@@ -213,6 +231,40 @@
         <v>21</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/middleProject/managerInfo.xlsx
+++ b/middleProject/managerInfo.xlsx
@@ -80,19 +80,19 @@
     <t>1700</t>
   </si>
   <si>
-    <t>04-31</t>
-  </si>
-  <si>
-    <t>삼각김밥</t>
-  </si>
-  <si>
-    <t>P9194</t>
-  </si>
-  <si>
-    <t>1200원</t>
-  </si>
-  <si>
-    <t>708</t>
+    <t>05-01</t>
+  </si>
+  <si>
+    <t>휴지</t>
+  </si>
+  <si>
+    <t>P8130</t>
+  </si>
+  <si>
+    <t>2700</t>
+  </si>
+  <si>
+    <t>91</t>
   </si>
 </sst>
 </file>
